--- a/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8147</v>
+        <v>7807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01566524895986001</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05448164042390502</v>
+        <v>0.05220983539462134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8275</v>
+        <v>7253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00885555389822513</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0312841012975612</v>
+        <v>0.02742012477311053</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>5522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1886</v>
+        <v>1920</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11164</v>
+        <v>11092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04801812312725716</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01639951506133229</v>
+        <v>0.01670015337122513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09708634369760669</v>
+        <v>0.09645833158673806</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -828,19 +828,19 @@
         <v>6403</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2320</v>
+        <v>2298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13868</v>
+        <v>13761</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04282225460465745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01551805912083855</v>
+        <v>0.01536707416059944</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09274249440117047</v>
+        <v>0.09202248662462366</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -849,19 +849,19 @@
         <v>11925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6202</v>
+        <v>6706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19806</v>
+        <v>21543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0450809024122929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02344606654740981</v>
+        <v>0.02535291323013749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07487592033098935</v>
+        <v>0.0814418317540215</v>
       </c>
     </row>
     <row r="6">
@@ -925,19 +925,19 @@
         <v>109467</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103825</v>
+        <v>103897</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113103</v>
+        <v>113069</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9519818768727428</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9029136563023934</v>
+        <v>0.9035416684132618</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9836004849386677</v>
+        <v>0.9832998466287749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -946,19 +946,19 @@
         <v>140789</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132804</v>
+        <v>132734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145281</v>
+        <v>145182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9415124964354825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8881129574554667</v>
+        <v>0.8876432622166476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9715530016596889</v>
+        <v>0.9708877598766514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>256</v>
@@ -967,19 +967,19 @@
         <v>250257</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241513</v>
+        <v>241185</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>256314</v>
+        <v>256324</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.946063543689482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.91300902293578</v>
+        <v>0.9117705037003417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9689628865296812</v>
+        <v>0.969000642548002</v>
       </c>
     </row>
     <row r="8">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5863</v>
+        <v>5714</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007237910847276489</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04018789303054669</v>
+        <v>0.03916362517688034</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7288</v>
+        <v>7072</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006699635762555878</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03989372435147494</v>
+        <v>0.03870980084914639</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1116,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7937</v>
+        <v>8555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006938637186233998</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>1.691426167021281e-07</v>
+        <v>1.689093274610503e-07</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0241572832494276</v>
+        <v>0.02603851473610615</v>
       </c>
     </row>
     <row r="10">
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7014</v>
+        <v>6354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01418212088088417</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04807722403267605</v>
+        <v>0.04355050792559433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1163,19 +1163,19 @@
         <v>7779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3360</v>
+        <v>3351</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14950</v>
+        <v>15821</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04258030869569242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01839195380354315</v>
+        <v>0.01834103687519268</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08183509800265726</v>
+        <v>0.08660349243597987</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1184,19 +1184,19 @@
         <v>9848</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4462</v>
+        <v>4410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17855</v>
+        <v>17724</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02997112890959719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01357968056699929</v>
+        <v>0.01342209450815849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.054341667611215</v>
+        <v>0.05394230932588234</v>
       </c>
     </row>
     <row r="11">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4170</v>
+        <v>4399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005950179693337494</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02858164245600139</v>
+        <v>0.03015199176973354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8734</v>
+        <v>7989</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01273592425896575</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04780879167996402</v>
+        <v>0.04373316182107445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>3195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9268</v>
+        <v>8467</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00972296182035871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002645748305843349</v>
+        <v>0.002606700721282908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02820767881205268</v>
+        <v>0.02577012462737833</v>
       </c>
     </row>
     <row r="12">
@@ -1284,19 +1284,19 @@
         <v>141896</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>137005</v>
+        <v>136676</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>144864</v>
+        <v>144853</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9726297885785018</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.939105164644693</v>
+        <v>0.9368486125952989</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9929747376652123</v>
+        <v>0.9928956987941326</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>159</v>
@@ -1305,19 +1305,19 @@
         <v>171351</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>162774</v>
+        <v>162241</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>176511</v>
+        <v>176840</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9379841312827859</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8910321290735113</v>
+        <v>0.8881178337937179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9662309666688816</v>
+        <v>0.9680336784472121</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>301</v>
@@ -1326,19 +1326,19 @@
         <v>313246</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>302293</v>
+        <v>303937</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>319824</v>
+        <v>320152</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9533672720838101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9200324490631505</v>
+        <v>0.9250365645105754</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9733868756767796</v>
+        <v>0.9743852188451891</v>
       </c>
     </row>
     <row r="13">
@@ -1443,19 +1443,19 @@
         <v>2830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7800</v>
+        <v>8139</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02083449623095372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006575350175216389</v>
+        <v>0.006549607700904878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05741903036835084</v>
+        <v>0.05991514399094765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1464,19 +1464,19 @@
         <v>2830</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7662</v>
+        <v>7007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01178233462946367</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003693122571374656</v>
+        <v>0.003649498696808055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03189381154980586</v>
+        <v>0.02916840057419087</v>
       </c>
     </row>
     <row r="15">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6689</v>
+        <v>6804</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01839629194804516</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06408775705457291</v>
+        <v>0.06519469056967593</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -1514,19 +1514,19 @@
         <v>4750</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1152</v>
+        <v>1179</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10360</v>
+        <v>11156</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03496726514335315</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.008480694024551207</v>
+        <v>0.008680173575503833</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07626287095909683</v>
+        <v>0.08212161527032451</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1535,19 +1535,19 @@
         <v>6670</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2287</v>
+        <v>2977</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14503</v>
+        <v>14545</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02776751691833829</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.009518545277510573</v>
+        <v>0.01239347365450918</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06037149783336866</v>
+        <v>0.06054930122909156</v>
       </c>
     </row>
     <row r="16">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5587</v>
+        <v>5592</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008280011968934685</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04112669952519757</v>
+        <v>0.04116172276319771</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6703</v>
+        <v>5604</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004682516470401212</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02790179351080628</v>
+        <v>0.02332799759949457</v>
       </c>
     </row>
     <row r="17">
@@ -1627,7 +1627,7 @@
         <v>102451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97682</v>
+        <v>97567</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>104371</v>
@@ -1636,7 +1636,7 @@
         <v>0.9816037080519548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.935912242945427</v>
+        <v>0.9348053094303244</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1648,19 +1648,19 @@
         <v>127144</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119967</v>
+        <v>120233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131750</v>
+        <v>131874</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9359182266567585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.883084110073648</v>
+        <v>0.8850458369353906</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9698162074973762</v>
+        <v>0.9707338614036443</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>232</v>
@@ -1669,19 +1669,19 @@
         <v>229595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>221832</v>
+        <v>221363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234974</v>
+        <v>234741</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9557676319817968</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9234495061595056</v>
+        <v>0.9214961331228021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9781561696312386</v>
+        <v>0.9771868945661426</v>
       </c>
     </row>
     <row r="18">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5080</v>
+        <v>5824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01216361744590918</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03701961352470693</v>
+        <v>0.04244481475550524</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1794,19 +1794,19 @@
         <v>3118</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8544</v>
+        <v>8493</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01493462726646175</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004273431959887556</v>
+        <v>0.004310733208078404</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04092344603163815</v>
+        <v>0.04068162514335095</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1815,19 +1815,19 @@
         <v>4787</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10180</v>
+        <v>10406</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01383567794428315</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004972587504940725</v>
+        <v>0.00498373469973399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02942125279729045</v>
+        <v>0.03007450157554774</v>
       </c>
     </row>
     <row r="20">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4057</v>
+        <v>3793</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005899457247116752</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02956939701477215</v>
+        <v>0.02764172401469496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6513</v>
+        <v>7726</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009854321522328551</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03119804647114052</v>
+        <v>0.03700739565293662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1886,19 +1886,19 @@
         <v>2867</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8232</v>
+        <v>7894</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008285869695735713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00234811854245119</v>
+        <v>0.0023380586210684</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02379159458346559</v>
+        <v>0.0228146291951393</v>
       </c>
     </row>
     <row r="21">
@@ -1928,19 +1928,19 @@
         <v>3259</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9004</v>
+        <v>9123</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01560968409753035</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004431781607858125</v>
+        <v>0.004446460757207293</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0431286049691714</v>
+        <v>0.04369800169406694</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1949,19 +1949,19 @@
         <v>3259</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10152</v>
+        <v>9694</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009419070253014158</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002702005587964041</v>
+        <v>0.002685571615033169</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02934264711032872</v>
+        <v>0.02801750202879934</v>
       </c>
     </row>
     <row r="22">
@@ -1978,19 +1978,19 @@
         <v>134738</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130656</v>
+        <v>130580</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136416</v>
+        <v>136419</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9819369253069741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9521827030474724</v>
+        <v>0.9516309537402441</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9941653006357284</v>
+        <v>0.9941860748136248</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>192</v>
@@ -1999,19 +1999,19 @@
         <v>200343</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>193160</v>
+        <v>192170</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>205027</v>
+        <v>205400</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9596013671136794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9251997022822208</v>
+        <v>0.9204568576303667</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9820379418247142</v>
+        <v>0.9838234615590911</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>345</v>
@@ -2020,19 +2020,19 @@
         <v>335082</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>327158</v>
+        <v>327851</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>339915</v>
+        <v>340503</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.968459382106967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9455571160289896</v>
+        <v>0.9475587829387394</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.982426073247638</v>
+        <v>0.9841256583648855</v>
       </c>
     </row>
     <row r="23">
@@ -2124,19 +2124,19 @@
         <v>2725</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8305</v>
+        <v>7807</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005423231450403397</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001651773648251731</v>
+        <v>0.001653911351372261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01652845331260172</v>
+        <v>0.01553805609177201</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2145,19 +2145,19 @@
         <v>9515</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4425</v>
+        <v>4224</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17438</v>
+        <v>16618</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01405759086535388</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006538435118944621</v>
+        <v>0.006241288444503116</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02576449668488715</v>
+        <v>0.02455176402357711</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2166,19 +2166,19 @@
         <v>12240</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6288</v>
+        <v>6664</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20357</v>
+        <v>21256</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01037876220271654</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005331819862923793</v>
+        <v>0.005650489406097543</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01726190794735137</v>
+        <v>0.01802383740244934</v>
       </c>
     </row>
     <row r="25">
@@ -2195,19 +2195,19 @@
         <v>10320</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5411</v>
+        <v>5588</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18233</v>
+        <v>17689</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02053892224611863</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01076830536089562</v>
+        <v>0.01112206764877104</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0362878151618421</v>
+        <v>0.03520346977328175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2216,19 +2216,19 @@
         <v>20990</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13127</v>
+        <v>13389</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32618</v>
+        <v>32500</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03101114599009216</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01939510101666653</v>
+        <v>0.01978140652046007</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0481912750018444</v>
+        <v>0.04801679622474531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2237,19 +2237,19 @@
         <v>31310</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21348</v>
+        <v>21365</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43485</v>
+        <v>43343</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02654926120867181</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01810250745891718</v>
+        <v>0.01811673116701698</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03687360627190934</v>
+        <v>0.03675316146789372</v>
       </c>
     </row>
     <row r="26">
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5091</v>
+        <v>5206</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001727608330200385</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01013154155697348</v>
+        <v>0.01036105827684657</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2287,19 +2287,19 @@
         <v>6710</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2307</v>
+        <v>2275</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13384</v>
+        <v>13626</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009914246668302398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003407992724502157</v>
+        <v>0.003361791174098084</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01977441123014037</v>
+        <v>0.02013212813409061</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2308,19 +2308,19 @@
         <v>7578</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3206</v>
+        <v>3336</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15796</v>
+        <v>15425</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006426177858390792</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002718623066318874</v>
+        <v>0.002828585889706329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01339416748707025</v>
+        <v>0.01308004344502954</v>
       </c>
     </row>
     <row r="27">
@@ -2337,19 +2337,19 @@
         <v>488553</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>480395</v>
+        <v>480006</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>494811</v>
+        <v>494104</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9723102379732775</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9560741785741805</v>
+        <v>0.9553000622351373</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9847643567990241</v>
+        <v>0.9833579623796945</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>626</v>
@@ -2358,19 +2358,19 @@
         <v>639627</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>625608</v>
+        <v>626168</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>650796</v>
+        <v>649874</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9450170164762516</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9243041228355874</v>
+        <v>0.9251315332595478</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9615186121712269</v>
+        <v>0.9601557178157208</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1134</v>
@@ -2379,19 +2379,19 @@
         <v>1128180</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1113069</v>
+        <v>1113102</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1141947</v>
+        <v>1140342</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9566457987302208</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9438320798155715</v>
+        <v>0.9438600219841264</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9683197848506928</v>
+        <v>0.9669585564178931</v>
       </c>
     </row>
     <row r="28">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8471</v>
+        <v>6449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01523049134908442</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06070591178703362</v>
+        <v>0.04621556507026429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2744,19 +2744,19 @@
         <v>4297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9870</v>
+        <v>9778</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02576408102912346</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006424044625028238</v>
+        <v>0.006357112662217123</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05917690822188378</v>
+        <v>0.05862449920559894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2765,19 +2765,19 @@
         <v>6422</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2212</v>
+        <v>2198</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12922</v>
+        <v>13200</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02096561074801763</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007222247772616674</v>
+        <v>0.007175747412988616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04218238274524327</v>
+        <v>0.04309124737317994</v>
       </c>
     </row>
     <row r="5">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6945</v>
+        <v>7145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01517488903850719</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04976545594278221</v>
+        <v>0.05119979905520326</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2815,19 +2815,19 @@
         <v>9467</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4251</v>
+        <v>4258</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16912</v>
+        <v>17186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0567626965398894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02549007974479506</v>
+        <v>0.02553243443828741</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1013958458288494</v>
+        <v>0.1030414985324106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -2836,19 +2836,19 @@
         <v>11585</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6332</v>
+        <v>6282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19951</v>
+        <v>19899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03781779129738779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0206697016206063</v>
+        <v>0.02050792537131914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06512741278501626</v>
+        <v>0.06495929577120246</v>
       </c>
     </row>
     <row r="6">
@@ -2912,19 +2912,19 @@
         <v>135304</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128614</v>
+        <v>129579</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138482</v>
+        <v>138503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9695946196124083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9216566160131012</v>
+        <v>0.9285666896209623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9923661996914472</v>
+        <v>0.9925167005005144</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -2933,19 +2933,19 @@
         <v>153023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145194</v>
+        <v>144248</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159494</v>
+        <v>158463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9174732224309872</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8705347405689141</v>
+        <v>0.8648612469365735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9562712728095483</v>
+        <v>0.9500909096696506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>269</v>
@@ -2954,19 +2954,19 @@
         <v>288327</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>278320</v>
+        <v>278593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>294986</v>
+        <v>294804</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9412165979545946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.908551264747618</v>
+        <v>0.9094417719044638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9629547825144137</v>
+        <v>0.9623612494065419</v>
       </c>
     </row>
     <row r="8">
@@ -3058,19 +3058,19 @@
         <v>5294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2013</v>
+        <v>2025</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11299</v>
+        <v>12205</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03418062283134961</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01299677942177367</v>
+        <v>0.01307302006190564</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07295193182354985</v>
+        <v>0.07880227956157644</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -3079,19 +3079,19 @@
         <v>8841</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4344</v>
+        <v>3403</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16405</v>
+        <v>16542</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04618616137132361</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0226952573234453</v>
+        <v>0.01777616435345676</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08570352695038047</v>
+        <v>0.08641873259418094</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -3100,19 +3100,19 @@
         <v>14135</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7503</v>
+        <v>8108</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23711</v>
+        <v>22851</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0408168136934678</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02166694509183179</v>
+        <v>0.02341281918260835</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0684707266308902</v>
+        <v>0.06598584632439766</v>
       </c>
     </row>
     <row r="10">
@@ -3129,19 +3129,19 @@
         <v>4435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10094</v>
+        <v>10140</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02863259104908041</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007361307421637828</v>
+        <v>0.007386290568687058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06517387533625781</v>
+        <v>0.06546834900136844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3150,19 +3150,19 @@
         <v>11044</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5757</v>
+        <v>5473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18980</v>
+        <v>18934</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05769454344458202</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0300775199197931</v>
+        <v>0.02859060923288653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09915281269383874</v>
+        <v>0.09891424896281029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3171,19 +3171,19 @@
         <v>15478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9026</v>
+        <v>8441</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25510</v>
+        <v>24512</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04469689855850092</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02606517314188781</v>
+        <v>0.02437614405840588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07366494294615619</v>
+        <v>0.07078184387110034</v>
       </c>
     </row>
     <row r="11">
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5196</v>
+        <v>5828</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00710605209810119</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03354775186784276</v>
+        <v>0.03762671373956133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4652</v>
+        <v>5788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006003907007215817</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02430486331657734</v>
+        <v>0.03023672064806389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7887</v>
+        <v>8983</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006496829516664391</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02277410296372712</v>
+        <v>0.02593924653246871</v>
       </c>
     </row>
     <row r="12">
@@ -3271,19 +3271,19 @@
         <v>144049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>136160</v>
+        <v>136142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149629</v>
+        <v>149466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9300807340214688</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8791407434542681</v>
+        <v>0.879026969453127</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9661111659579266</v>
+        <v>0.9650541862577602</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>158</v>
@@ -3292,19 +3292,19 @@
         <v>170386</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>160524</v>
+        <v>159321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>178066</v>
+        <v>178359</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8901153881768785</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8385973641178577</v>
+        <v>0.8323121947794563</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.930236751615597</v>
+        <v>0.9317656953653543</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>286</v>
@@ -3313,19 +3313,19 @@
         <v>314435</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>301817</v>
+        <v>302175</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>324095</v>
+        <v>324036</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9079894582313669</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8715531391212786</v>
+        <v>0.872587578172529</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.935885230410429</v>
+        <v>0.9357154526552988</v>
       </c>
     </row>
     <row r="13">
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5178</v>
+        <v>5802</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01024836164566847</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0499831731514951</v>
+        <v>0.05600055753677903</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3438,19 +3438,19 @@
         <v>7688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3163</v>
+        <v>3240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16350</v>
+        <v>15824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05451689152049</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02242875000487452</v>
+        <v>0.02297299902155633</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1159431652517858</v>
+        <v>0.1122128757924088</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -3459,19 +3459,19 @@
         <v>8750</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4087</v>
+        <v>3579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18662</v>
+        <v>17654</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.035768632805108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01670751367290648</v>
+        <v>0.01463009251657775</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07628921213714177</v>
+        <v>0.07216814035518945</v>
       </c>
     </row>
     <row r="15">
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7071</v>
+        <v>6700</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0209322052262906</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06825821245209393</v>
+        <v>0.06467439688378047</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -3509,19 +3509,19 @@
         <v>5302</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2071</v>
+        <v>1981</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11331</v>
+        <v>11802</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03759464170775921</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01468708531867568</v>
+        <v>0.01404613824784283</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08035197187154927</v>
+        <v>0.08368792317544807</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -3530,19 +3530,19 @@
         <v>7470</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3031</v>
+        <v>3150</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13915</v>
+        <v>14502</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03053789799238069</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01239281014634315</v>
+        <v>0.01287609132057521</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05688433299133792</v>
+        <v>0.05928375984353482</v>
       </c>
     </row>
     <row r="16">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9757</v>
+        <v>10966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02189948502210644</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09417673279154777</v>
+        <v>0.105847881835022</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6197</v>
+        <v>5456</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007861337097341126</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04394716478658893</v>
+        <v>0.03868753882644219</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13303</v>
+        <v>11442</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01380666281569071</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05438331381872912</v>
+        <v>0.04677563193650085</v>
       </c>
     </row>
     <row r="17">
@@ -3630,19 +3630,19 @@
         <v>98099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90269</v>
+        <v>89528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102452</v>
+        <v>102473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9469199481059345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8713358694354784</v>
+        <v>0.8641898456208094</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9889346575561968</v>
+        <v>0.9891378660387644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -3651,19 +3651,19 @@
         <v>126921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117253</v>
+        <v>117689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133461</v>
+        <v>133421</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9000271296744097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.831466828507803</v>
+        <v>0.834564079648451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9464017516384965</v>
+        <v>0.9461177028275435</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -3672,19 +3672,19 @@
         <v>225020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>211532</v>
+        <v>213643</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232830</v>
+        <v>232617</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9198868063868206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8647490680825836</v>
+        <v>0.8733765803257784</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9518127347398657</v>
+        <v>0.9509427658231195</v>
       </c>
     </row>
     <row r="18">
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4551</v>
+        <v>3889</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005921504291880546</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02815925170416462</v>
+        <v>0.02406384193538337</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -3797,19 +3797,19 @@
         <v>6323</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2166</v>
+        <v>2154</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12702</v>
+        <v>12660</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02594245216171786</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008884383627984108</v>
+        <v>0.008836300231777785</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05211039439726568</v>
+        <v>0.05193649690823247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -3818,19 +3818,19 @@
         <v>7280</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3035</v>
+        <v>2978</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14650</v>
+        <v>14053</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01796034112639788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007487144883017762</v>
+        <v>0.007347032116951175</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03614145628724977</v>
+        <v>0.03466685372359617</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>3034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8768</v>
+        <v>8141</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01877086862117463</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006108184112476969</v>
+        <v>0.00602597908947465</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05425020603227933</v>
+        <v>0.05037570281064423</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -3868,19 +3868,19 @@
         <v>9230</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4184</v>
+        <v>4707</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16407</v>
+        <v>17243</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03786616484488572</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01716384051606858</v>
+        <v>0.01931100922948433</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06730925200180544</v>
+        <v>0.07074063969548988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -3889,19 +3889,19 @@
         <v>12263</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6865</v>
+        <v>6963</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20383</v>
+        <v>20732</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03025309998397478</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01693593627669128</v>
+        <v>0.01717628780731944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05028271302276998</v>
+        <v>0.05114470657566551</v>
       </c>
     </row>
     <row r="21">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5874</v>
+        <v>5031</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.006098414536667486</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03634497384256635</v>
+        <v>0.03113088031239386</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6547</v>
+        <v>7528</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.008927611342179235</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02685829906069818</v>
+        <v>0.03088536303662755</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>3162</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8486</v>
+        <v>8453</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007799644615069882</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002412672025846076</v>
+        <v>0.002440012974393133</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02093458332502327</v>
+        <v>0.02085288358301531</v>
       </c>
     </row>
     <row r="22">
@@ -3989,19 +3989,19 @@
         <v>156637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>150285</v>
+        <v>151157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159666</v>
+        <v>159700</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9692092125502774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9299037923669236</v>
+        <v>0.9353040442984683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9879497287335992</v>
+        <v>0.98816301734515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>214</v>
@@ -4010,19 +4010,19 @@
         <v>226021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>216868</v>
+        <v>217695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>233473</v>
+        <v>232506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9272637716512172</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8897157299880963</v>
+        <v>0.8931095672563923</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9578389520215016</v>
+        <v>0.9538703287563418</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>356</v>
@@ -4031,19 +4031,19 @@
         <v>382657</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>372434</v>
+        <v>372065</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>390734</v>
+        <v>390783</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9439869142745575</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9187671124597058</v>
+        <v>0.9178571013782899</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9639112785728663</v>
+        <v>0.9640322786551524</v>
       </c>
     </row>
     <row r="23">
@@ -4135,19 +4135,19 @@
         <v>9438</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4164</v>
+        <v>4246</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16958</v>
+        <v>16783</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01686434591151883</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007440668696890777</v>
+        <v>0.007586826872500979</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03030255896771269</v>
+        <v>0.0299885743079904</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -4156,19 +4156,19 @@
         <v>27149</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17659</v>
+        <v>17831</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39318</v>
+        <v>39001</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03654150202624327</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02376802672008446</v>
+        <v>0.02399991546109171</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05291918776905287</v>
+        <v>0.05249255970745519</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -4177,19 +4177,19 @@
         <v>36587</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>25309</v>
+        <v>26025</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49577</v>
+        <v>50740</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02808766846861817</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01942980709948958</v>
+        <v>0.019978977508999</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0380595735124719</v>
+        <v>0.03895244681448091</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>11754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6271</v>
+        <v>6177</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20335</v>
+        <v>20907</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.021003505972266</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.011205574473993</v>
+        <v>0.0110377207871944</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03633655674823139</v>
+        <v>0.03735811367514637</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -4227,19 +4227,19 @@
         <v>35043</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25061</v>
+        <v>25773</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48400</v>
+        <v>49933</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04716519857150796</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03373088605228434</v>
+        <v>0.03468832410280975</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06514355640099333</v>
+        <v>0.06720725094738483</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -4248,19 +4248,19 @@
         <v>46797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33534</v>
+        <v>35247</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62101</v>
+        <v>62008</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03592543437335512</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02574352825219412</v>
+        <v>0.02705894556804748</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04767413287760065</v>
+        <v>0.04760296694404033</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>4355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12864</v>
+        <v>12403</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00778165683923973</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001767437477742475</v>
+        <v>0.001780695665416695</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02298559051079924</v>
+        <v>0.02216225037875066</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4298,19 +4298,19 @@
         <v>4434</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11006</v>
+        <v>11144</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005967852906922946</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001488682764819322</v>
+        <v>0.001496055134276591</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01481373762935628</v>
+        <v>0.01499962157760356</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -4319,19 +4319,19 @@
         <v>8789</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18711</v>
+        <v>18815</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006747111680933376</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00257721176015713</v>
+        <v>0.002579033499403482</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01436423551218693</v>
+        <v>0.01444423982099349</v>
       </c>
     </row>
     <row r="27">
@@ -4348,19 +4348,19 @@
         <v>534090</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>521929</v>
+        <v>521963</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>542617</v>
+        <v>543602</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9543504912769755</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9326208634615605</v>
+        <v>0.9326813853553052</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.969588069844619</v>
+        <v>0.9713475713270376</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>633</v>
@@ -4369,19 +4369,19 @@
         <v>676349</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>658227</v>
+        <v>658248</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>691853</v>
+        <v>691399</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9103254464953258</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8859340869815965</v>
+        <v>0.8859628423250071</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9311932409194732</v>
+        <v>0.9305823882340525</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1114</v>
@@ -4390,19 +4390,19 @@
         <v>1210439</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1189811</v>
+        <v>1191203</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1229332</v>
+        <v>1227944</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9292397854770933</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9134042295481093</v>
+        <v>0.9144728018248038</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9437441791893264</v>
+        <v>0.942678232061446</v>
       </c>
     </row>
     <row r="28">
@@ -4734,19 +4734,19 @@
         <v>3505</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>932</v>
+        <v>868</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9060</v>
+        <v>8441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02563529002532815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006819639202064008</v>
+        <v>0.00634837001574434</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06626351144331796</v>
+        <v>0.06173518042700695</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7932</v>
+        <v>8161</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01337902851653804</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04574520733607239</v>
+        <v>0.0470651177358344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4776,19 +4776,19 @@
         <v>5825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2295</v>
+        <v>2064</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12443</v>
+        <v>12868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0187828122738262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007400392876634166</v>
+        <v>0.006655599797687204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04012109740896064</v>
+        <v>0.04149279958737663</v>
       </c>
     </row>
     <row r="5">
@@ -4805,19 +4805,19 @@
         <v>4194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1566</v>
+        <v>1579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9412</v>
+        <v>9895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03067467088661735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01145427982008455</v>
+        <v>0.01154446213424879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06883107081183817</v>
+        <v>0.07236760079202982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -4826,19 +4826,19 @@
         <v>6940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2702</v>
+        <v>2489</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15057</v>
+        <v>13986</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04002558414692595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01558295540680155</v>
+        <v>0.01435323891797967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08683900961761516</v>
+        <v>0.08066330374559386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -4847,19 +4847,19 @@
         <v>11134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6159</v>
+        <v>5578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19272</v>
+        <v>18479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03590276797205679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01985926845893913</v>
+        <v>0.01798542764301253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06214175889913268</v>
+        <v>0.05958594703789796</v>
       </c>
     </row>
     <row r="6">
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6560</v>
+        <v>5759</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01319085693835331</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04797836432847835</v>
+        <v>0.04211997777306565</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5664</v>
+        <v>5629</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006522417918342047</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03266871548900771</v>
+        <v>0.03246309654047861</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -4918,19 +4918,19 @@
         <v>2935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8134</v>
+        <v>8478</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009462531625687434</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002719825069836868</v>
+        <v>0.002734185924011182</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0262295963636121</v>
+        <v>0.02733624427297626</v>
       </c>
     </row>
     <row r="7">
@@ -4947,19 +4947,19 @@
         <v>127231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120371</v>
+        <v>120988</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>131725</v>
+        <v>131700</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9304991821497012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8803313666789332</v>
+        <v>0.8848438381489527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9633640844116025</v>
+        <v>0.9631857860456939</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>148</v>
@@ -4968,19 +4968,19 @@
         <v>163000</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155140</v>
+        <v>154609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168687</v>
+        <v>168672</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.940072969418194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8947400693124616</v>
+        <v>0.8916779115893663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9728702734953654</v>
+        <v>0.9727851330269722</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>285</v>
@@ -4989,19 +4989,19 @@
         <v>290231</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>280704</v>
+        <v>280091</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>296900</v>
+        <v>297781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9358518881284296</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9051306719517946</v>
+        <v>0.9031550864553355</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9573570100123074</v>
+        <v>0.9601965069199423</v>
       </c>
     </row>
     <row r="8">
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5533</v>
+        <v>6369</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01105658148875392</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03354442587744914</v>
+        <v>0.0386155004502379</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -5114,19 +5114,19 @@
         <v>4530</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1237</v>
+        <v>1260</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13575</v>
+        <v>13499</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0206674614496499</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005644799591639233</v>
+        <v>0.00574864919999671</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06193979196963593</v>
+        <v>0.06159556766756392</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -5135,19 +5135,19 @@
         <v>6353</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1819</v>
+        <v>2157</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14477</v>
+        <v>13102</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01654038484978907</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004734713933347679</v>
+        <v>0.005615739932334168</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03769086464603774</v>
+        <v>0.03411033826432824</v>
       </c>
     </row>
     <row r="10">
@@ -5164,19 +5164,19 @@
         <v>5877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11378</v>
+        <v>12714</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03562929888954251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01524321506591093</v>
+        <v>0.01522035579772689</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06898323884425028</v>
+        <v>0.07708115078593754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5185,19 +5185,19 @@
         <v>13722</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7158</v>
+        <v>6933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22469</v>
+        <v>23369</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06260968952069078</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03265990038766028</v>
+        <v>0.0316345828405534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1025203467051262</v>
+        <v>0.1066282511547747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -5206,19 +5206,19 @@
         <v>19598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12004</v>
+        <v>11774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30487</v>
+        <v>30863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05102384730000241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03125208147587654</v>
+        <v>0.03065407983948923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07937236298591209</v>
+        <v>0.08035150591252477</v>
       </c>
     </row>
     <row r="11">
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5612</v>
+        <v>5990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00541700042836351</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02560746212171116</v>
+        <v>0.02733245371030942</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5892</v>
+        <v>6805</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003090847589050453</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01533997618368513</v>
+        <v>0.01771672907785967</v>
       </c>
     </row>
     <row r="12">
@@ -5298,19 +5298,19 @@
         <v>157241</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>150976</v>
+        <v>150262</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>160742</v>
+        <v>161457</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9533141196217035</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9153354513976015</v>
+        <v>0.9110070138446517</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.974544125051886</v>
+        <v>0.9788753750585166</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>167</v>
@@ -5319,19 +5319,19 @@
         <v>199725</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>188976</v>
+        <v>188284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>208203</v>
+        <v>207601</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9113058486012958</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8622639224114449</v>
+        <v>0.8591040996063184</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9499923698973179</v>
+        <v>0.9472445257262899</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>333</v>
@@ -5340,19 +5340,19 @@
         <v>356965</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>343536</v>
+        <v>345013</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>365910</v>
+        <v>366231</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9293449202611581</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8943816246802683</v>
+        <v>0.8982282838749744</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9526325847361939</v>
+        <v>0.9534671735546664</v>
       </c>
     </row>
     <row r="13">
@@ -5457,19 +5457,19 @@
         <v>3889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10690</v>
+        <v>11849</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02727416277204633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008749337888743955</v>
+        <v>0.008867091199250663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07496519000995094</v>
+        <v>0.0830948427445157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -5478,19 +5478,19 @@
         <v>3889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1257</v>
+        <v>1267</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10449</v>
+        <v>11784</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01509595479494062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004881011839615804</v>
+        <v>0.004917670632675253</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04055772667203809</v>
+        <v>0.04573859296704953</v>
       </c>
     </row>
     <row r="15">
@@ -5507,19 +5507,19 @@
         <v>3512</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8209</v>
+        <v>8638</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03053338193508131</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.007319859098942651</v>
+        <v>0.007665313583926462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07135677367107704</v>
+        <v>0.07509207705115352</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -5528,19 +5528,19 @@
         <v>11707</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5898</v>
+        <v>5516</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20117</v>
+        <v>21133</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08209935354670807</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04136147047624841</v>
+        <v>0.038685211426977</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1410780270580986</v>
+        <v>0.1482009676136267</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -5549,19 +5549,19 @@
         <v>15219</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8365</v>
+        <v>8899</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>25959</v>
+        <v>25781</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05907459080416309</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03246817628391293</v>
+        <v>0.03454030918006645</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.100760568511151</v>
+        <v>0.1000680573983294</v>
       </c>
     </row>
     <row r="16">
@@ -5625,19 +5625,19 @@
         <v>111523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>106826</v>
+        <v>106397</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114193</v>
+        <v>114153</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9694666180649187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9286432263289229</v>
+        <v>0.9249079229488465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9926801409010574</v>
+        <v>0.9923346864160737</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -5646,19 +5646,19 @@
         <v>127000</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117507</v>
+        <v>117543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133691</v>
+        <v>134212</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8906264836812456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8240583776578482</v>
+        <v>0.8243048096808566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9375525140835578</v>
+        <v>0.9412070661959601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>216</v>
@@ -5667,19 +5667,19 @@
         <v>238522</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>226158</v>
+        <v>226880</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246315</v>
+        <v>245715</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9258294544008963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8778361388157011</v>
+        <v>0.8806378213036452</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9560757132566621</v>
+        <v>0.9537488550356361</v>
       </c>
     </row>
     <row r="18">
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8616</v>
+        <v>7539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01015963839050409</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0354884980441886</v>
+        <v>0.03105201709166501</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8652</v>
+        <v>8409</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005909372866214499</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02072922983701643</v>
+        <v>0.02014541612545519</v>
       </c>
     </row>
     <row r="20">
@@ -5834,19 +5834,19 @@
         <v>3616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10696</v>
+        <v>10677</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02070567588632192</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004547116819338688</v>
+        <v>0.004502261069617623</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06125119651781853</v>
+        <v>0.06114324786037159</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -5855,19 +5855,19 @@
         <v>11708</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5795</v>
+        <v>5806</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20846</v>
+        <v>20639</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0482264704715562</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02386992767017923</v>
+        <v>0.02391551587146311</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0858623600285922</v>
+        <v>0.08501243129335979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -5876,19 +5876,19 @@
         <v>15324</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8917</v>
+        <v>8245</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26940</v>
+        <v>25465</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03671319805666338</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02136325413141484</v>
+        <v>0.01975318531609992</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0645427998646694</v>
+        <v>0.06100792242323227</v>
       </c>
     </row>
     <row r="21">
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6389</v>
+        <v>6197</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009531173058452561</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03659078920739457</v>
+        <v>0.03549064256574132</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6038</v>
+        <v>5863</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003987348240095058</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0144654900788276</v>
+        <v>0.01404650926865365</v>
       </c>
     </row>
     <row r="22">
@@ -5968,19 +5968,19 @@
         <v>169338</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162036</v>
+        <v>162356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>172924</v>
+        <v>172582</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9697631510552255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9279454325722709</v>
+        <v>0.9297791844911754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9902977115523258</v>
+        <v>0.9883421878696548</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>187</v>
@@ -5989,19 +5989,19 @@
         <v>228606</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>218635</v>
+        <v>218758</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>235282</v>
+        <v>235213</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9416138911379397</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9005436730533757</v>
+        <v>0.9010487022565498</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9691103453819778</v>
+        <v>0.9688286440921535</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>372</v>
@@ -6010,19 +6010,19 @@
         <v>397945</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>385737</v>
+        <v>387096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>405676</v>
+        <v>405556</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.953390080837027</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9241415581832183</v>
+        <v>0.9273972094097782</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9719117662538161</v>
+        <v>0.9716241425344604</v>
       </c>
     </row>
     <row r="23">
@@ -6114,19 +6114,19 @@
         <v>5329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1886</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11093</v>
+        <v>12106</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009011741481572967</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003189849336388622</v>
+        <v>0.004058889634707674</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01875935019127651</v>
+        <v>0.02047327814285446</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -6135,19 +6135,19 @@
         <v>13205</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6494</v>
+        <v>6283</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23217</v>
+        <v>23557</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01697464017700514</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008347862868453846</v>
+        <v>0.008075929731731938</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02984400047757547</v>
+        <v>0.03028199437835554</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -6156,19 +6156,19 @@
         <v>18534</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10379</v>
+        <v>10665</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29989</v>
+        <v>28139</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01353578386668478</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007580147705295194</v>
+        <v>0.007788916777413356</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02190181781948972</v>
+        <v>0.02055039322728758</v>
       </c>
     </row>
     <row r="25">
@@ -6185,19 +6185,19 @@
         <v>17199</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10855</v>
+        <v>10594</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26672</v>
+        <v>26297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0290853636997633</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01835663726456941</v>
+        <v>0.01791617241649703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04510468710169677</v>
+        <v>0.04447122612625189</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -6206,19 +6206,19 @@
         <v>44077</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31805</v>
+        <v>30123</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59324</v>
+        <v>61120</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05665967139987355</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04088385760606095</v>
+        <v>0.03872254453872001</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07625811623707869</v>
+        <v>0.07856729553998047</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -6227,19 +6227,19 @@
         <v>61276</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46968</v>
+        <v>47758</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79620</v>
+        <v>80679</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04475143475589435</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03430181431000624</v>
+        <v>0.0348786200638341</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05814816439135281</v>
+        <v>0.05892153208429553</v>
       </c>
     </row>
     <row r="26">
@@ -6256,19 +6256,19 @@
         <v>3468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8576</v>
+        <v>8659</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005864689013602552</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001514859012029556</v>
+        <v>0.00150034418766862</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01450352042141532</v>
+        <v>0.01464330031409564</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8162</v>
+        <v>7309</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002979870364770302</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01049159207108636</v>
+        <v>0.009395394916915552</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -6298,19 +6298,19 @@
         <v>5786</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2075</v>
+        <v>2090</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12768</v>
+        <v>12418</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004225707740593935</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00151535121786847</v>
+        <v>0.001526669421201685</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00932507835109966</v>
+        <v>0.009069120688742603</v>
       </c>
     </row>
     <row r="27">
@@ -6327,19 +6327,19 @@
         <v>565332</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>555207</v>
+        <v>554171</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>573782</v>
+        <v>573445</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9560382058050612</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9389146156192755</v>
+        <v>0.9371639127324761</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9703284566741086</v>
+        <v>0.9697585723451344</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>608</v>
@@ -6348,19 +6348,19 @@
         <v>718330</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>701566</v>
+        <v>699178</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>732738</v>
+        <v>734111</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.923385818058351</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9018353908133331</v>
+        <v>0.8987665686659121</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9419066326210671</v>
+        <v>0.943670545725058</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1206</v>
@@ -6369,19 +6369,19 @@
         <v>1283663</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1265194</v>
+        <v>1263226</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1301353</v>
+        <v>1300276</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9374870736368269</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9239991784853455</v>
+        <v>0.9225615863682561</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9504065447511093</v>
+        <v>0.949620273458838</v>
       </c>
     </row>
     <row r="28">
@@ -6713,19 +6713,19 @@
         <v>2032</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6348</v>
+        <v>6098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01243945300200824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004119510935587848</v>
+        <v>0.004073369401812308</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03886751476740748</v>
+        <v>0.03733827385801197</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -6734,19 +6734,19 @@
         <v>2471</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>830</v>
+        <v>946</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5086</v>
+        <v>5050</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01293605014756512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00434694294512024</v>
+        <v>0.004952359089282585</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0266243866504711</v>
+        <v>0.02643668680904971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6755,19 +6755,19 @@
         <v>4503</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2236</v>
+        <v>2195</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8518</v>
+        <v>8410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01270717213816362</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006310608424186176</v>
+        <v>0.006195149209008841</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02403913132088068</v>
+        <v>0.0237329410384429</v>
       </c>
     </row>
     <row r="5">
@@ -6784,19 +6784,19 @@
         <v>3010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7912</v>
+        <v>7316</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01843077243648592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005935559086870534</v>
+        <v>0.005954659547942079</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04844540541108853</v>
+        <v>0.04479407868581765</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -6805,19 +6805,19 @@
         <v>12071</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8525</v>
+        <v>7984</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17562</v>
+        <v>17365</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06319120674234799</v>
+        <v>0.06319120674234797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04462814726170392</v>
+        <v>0.04179362591556453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09193350451117012</v>
+        <v>0.09090369581474163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -6826,19 +6826,19 @@
         <v>15081</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10085</v>
+        <v>10474</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21142</v>
+        <v>22085</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04256144840496495</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02846068474583986</v>
+        <v>0.02955753904176819</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05966488194668371</v>
+        <v>0.06232763340157745</v>
       </c>
     </row>
     <row r="6">
@@ -6868,19 +6868,19 @@
         <v>2468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5863</v>
+        <v>5825</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01291828636915566</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003471454278142187</v>
+        <v>0.003454416319132817</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0306938643949104</v>
+        <v>0.03049231437017503</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -6889,19 +6889,19 @@
         <v>2468</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5769</v>
+        <v>5873</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006964342220452702</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001865149944859749</v>
+        <v>0.001880521315213984</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01628153996496646</v>
+        <v>0.01657293698181713</v>
       </c>
     </row>
     <row r="7">
@@ -6918,19 +6918,19 @@
         <v>158272</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153339</v>
+        <v>153266</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>161283</v>
+        <v>161243</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9691297745615058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9389219234665165</v>
+        <v>0.9384712976029516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9875648465115255</v>
+        <v>0.9873168862355284</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>407</v>
@@ -6939,19 +6939,19 @@
         <v>174019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167742</v>
+        <v>168266</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178730</v>
+        <v>179525</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9109544567409312</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8780977107932032</v>
+        <v>0.8808401304759395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9356190036393818</v>
+        <v>0.9397776631266918</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>652</v>
@@ -6960,19 +6960,19 @@
         <v>332291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>325550</v>
+        <v>324424</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>338650</v>
+        <v>338031</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9377670372364189</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9187415125980136</v>
+        <v>0.9155652452171549</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9557137943624208</v>
+        <v>0.9539647018208873</v>
       </c>
     </row>
     <row r="8">
@@ -7064,19 +7064,19 @@
         <v>2003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5957</v>
+        <v>5616</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01123915221135686</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002673148745412373</v>
+        <v>0.002660387414780362</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03342998680316113</v>
+        <v>0.03151535199879846</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -7085,19 +7085,19 @@
         <v>5560</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2609</v>
+        <v>2558</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9707</v>
+        <v>9708</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02297188257154847</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01078067565925649</v>
+        <v>0.01056871974815002</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04010623300321115</v>
+        <v>0.04010786193719245</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -7106,19 +7106,19 @@
         <v>7563</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4552</v>
+        <v>4188</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12883</v>
+        <v>12943</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01799663236464593</v>
+        <v>0.01799663236464592</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01083114372230065</v>
+        <v>0.009966578745559364</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03065706986591597</v>
+        <v>0.03079977625487449</v>
       </c>
     </row>
     <row r="10">
@@ -7135,19 +7135,19 @@
         <v>4781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2022</v>
+        <v>2239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9731</v>
+        <v>9716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02683004665516122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01134577416125022</v>
+        <v>0.01256257779329959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05460859328259308</v>
+        <v>0.05452303335291429</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -7156,19 +7156,19 @@
         <v>16606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11072</v>
+        <v>11304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23361</v>
+        <v>23362</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0686086231547109</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04574616889208858</v>
+        <v>0.04670404083094248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09651609020115229</v>
+        <v>0.09652010122974909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -7177,19 +7177,19 @@
         <v>21387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15773</v>
+        <v>15446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31401</v>
+        <v>30750</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05089246800648302</v>
+        <v>0.05089246800648301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03753413158300557</v>
+        <v>0.03675399072959527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07472077718356762</v>
+        <v>0.07317142603472122</v>
       </c>
     </row>
     <row r="11">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3167</v>
+        <v>2998</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003353835897829836</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01777339724980307</v>
+        <v>0.01682072516213255</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5294</v>
+        <v>4743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005829149218736315</v>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02187413604596655</v>
+        <v>0.01959765739441289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -7248,19 +7248,19 @@
         <v>2009</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6119</v>
+        <v>6431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004779495580247051</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001412316597747037</v>
+        <v>0.001411015459271078</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01456068868456744</v>
+        <v>0.01530232815541499</v>
       </c>
     </row>
     <row r="12">
@@ -7277,19 +7277,19 @@
         <v>170822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>164877</v>
+        <v>165702</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174410</v>
+        <v>174214</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9585769652356521</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9252152048639919</v>
+        <v>0.9298416990031041</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9787079046108942</v>
+        <v>0.9776124361139248</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>407</v>
@@ -7298,19 +7298,19 @@
         <v>218463</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>211035</v>
+        <v>210566</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>224187</v>
+        <v>224415</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9025903450550044</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8718995743759199</v>
+        <v>0.8699621111103467</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9262374123738084</v>
+        <v>0.9271811081926241</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>650</v>
@@ -7319,19 +7319,19 @@
         <v>389284</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>378389</v>
+        <v>379294</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>396464</v>
+        <v>397197</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.926331404048624</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9004052734014676</v>
+        <v>0.9025576242923445</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9434166732504381</v>
+        <v>0.9451611303301037</v>
       </c>
     </row>
     <row r="13">
@@ -7436,19 +7436,19 @@
         <v>4472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1805</v>
+        <v>1790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10098</v>
+        <v>9218</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02556911970222439</v>
+        <v>0.0255691197022244</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01031735225831254</v>
+        <v>0.01023382935000124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05773284420479664</v>
+        <v>0.05270048576671482</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -7457,19 +7457,19 @@
         <v>4472</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1783</v>
+        <v>1812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9900</v>
+        <v>10274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01336228188179959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00532616461460338</v>
+        <v>0.005414294416907789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02957860386829681</v>
+        <v>0.03069718559352708</v>
       </c>
     </row>
     <row r="15">
@@ -7486,19 +7486,19 @@
         <v>2548</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6581</v>
+        <v>6888</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01594533143963893</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00420245455236752</v>
+        <v>0.004268342850058631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04118374004879544</v>
+        <v>0.04310746858008469</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -7507,19 +7507,19 @@
         <v>6362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3095</v>
+        <v>3164</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11697</v>
+        <v>11390</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03637513547958254</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0176938231406966</v>
+        <v>0.01809052039921816</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0668730190805393</v>
+        <v>0.06512170620803091</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -7528,19 +7528,19 @@
         <v>8910</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5072</v>
+        <v>4912</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14877</v>
+        <v>15062</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02662183511089774</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01515518413088912</v>
+        <v>0.01467621843611105</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04445062729002114</v>
+        <v>0.04500151655618856</v>
       </c>
     </row>
     <row r="16">
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5601</v>
+        <v>5675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009798499106974881</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03505108763990603</v>
+        <v>0.03551510192201802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7578,19 +7578,19 @@
         <v>2607</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6565</v>
+        <v>6410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01490253025051179</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003705492042943152</v>
+        <v>0.003824413337431332</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03753215431946268</v>
+        <v>0.03664521338664761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -7599,19 +7599,19 @@
         <v>4172</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1618</v>
+        <v>1564</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8854</v>
+        <v>9254</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0124658378213183</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004833593961761414</v>
+        <v>0.004673793883362118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02645294666903267</v>
+        <v>0.02765061431201928</v>
       </c>
     </row>
     <row r="17">
@@ -7628,19 +7628,19 @@
         <v>155672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150714</v>
+        <v>150816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158224</v>
+        <v>158314</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.974256169453386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9432311308225811</v>
+        <v>0.9438697824351079</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9902295206327709</v>
+        <v>0.9907909432442499</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>268</v>
@@ -7649,19 +7649,19 @@
         <v>161468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>155594</v>
+        <v>154868</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166252</v>
+        <v>166458</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9231532145676812</v>
+        <v>0.9231532145676814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.889573971743676</v>
+        <v>0.8854217295585698</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9505073783105721</v>
+        <v>0.9516861074955634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>456</v>
@@ -7670,19 +7670,19 @@
         <v>317139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>309089</v>
+        <v>309719</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>323121</v>
+        <v>323630</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9475500451859843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9234976292796723</v>
+        <v>0.925378882041849</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.965422421348711</v>
+        <v>0.9669439629842107</v>
       </c>
     </row>
     <row r="18">
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4492</v>
+        <v>3874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005845859662616402</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02088463788230097</v>
+        <v>0.01800945373848258</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -7795,19 +7795,19 @@
         <v>3794</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1657</v>
+        <v>1531</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7273</v>
+        <v>7759</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0128447495933554</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005611379557328794</v>
+        <v>0.005181793070465639</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02462339308638723</v>
+        <v>0.02626798721298245</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -7816,19 +7816,19 @@
         <v>5051</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2135</v>
+        <v>2445</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9102</v>
+        <v>9311</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009895647168061697</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004182345219077893</v>
+        <v>0.004790706163373978</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01783159921567274</v>
+        <v>0.01824033966832865</v>
       </c>
     </row>
     <row r="20">
@@ -7845,19 +7845,19 @@
         <v>1765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4929</v>
+        <v>4814</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008207552307231889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002332130970362013</v>
+        <v>0.002294464220454162</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02291449269080781</v>
+        <v>0.02238345611606746</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -7866,19 +7866,19 @@
         <v>14099</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9158</v>
+        <v>8110</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21757</v>
+        <v>21653</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04773497686346369</v>
+        <v>0.04773497686346367</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03100608443329676</v>
+        <v>0.02745692839988288</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07366055872936703</v>
+        <v>0.07330851319276885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -7887,19 +7887,19 @@
         <v>15865</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10028</v>
+        <v>10397</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23119</v>
+        <v>23963</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03107941794226648</v>
+        <v>0.03107941794226649</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01964495745154771</v>
+        <v>0.02036798773694595</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0452909040283752</v>
+        <v>0.04694357543514598</v>
       </c>
     </row>
     <row r="21">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4656</v>
+        <v>4598</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00611410275764856</v>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02164561871001815</v>
+        <v>0.02137527833520894</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -7937,19 +7937,19 @@
         <v>4207</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1889</v>
+        <v>1579</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8637</v>
+        <v>8211</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01424389635999685</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006395495204931693</v>
+        <v>0.005347385611985322</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02924133542653965</v>
+        <v>0.02780020903792651</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -7958,19 +7958,19 @@
         <v>5522</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2552</v>
+        <v>2559</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10049</v>
+        <v>10191</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0108182682579571</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004999453508370761</v>
+        <v>0.005013590317523126</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01968656245741518</v>
+        <v>0.01996407520385118</v>
       </c>
     </row>
     <row r="22">
@@ -7987,19 +7987,19 @@
         <v>210751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>206324</v>
+        <v>206208</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>213279</v>
+        <v>213209</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9798324852725031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9592504269877745</v>
+        <v>0.9587121698064377</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9915826485929161</v>
+        <v>0.9912601903320817</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>489</v>
@@ -8008,19 +8008,19 @@
         <v>273266</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264603</v>
+        <v>265205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>279213</v>
+        <v>280987</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.925176377183184</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8958468407788645</v>
+        <v>0.8978848406516676</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.945311325291238</v>
+        <v>0.9513188232225628</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>809</v>
@@ -8029,19 +8029,19 @@
         <v>484016</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>474852</v>
+        <v>475035</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>491813</v>
+        <v>491476</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9482066666317146</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9302542945140342</v>
+        <v>0.9306125932683961</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9634817287197792</v>
+        <v>0.9628221735693026</v>
       </c>
     </row>
     <row r="23">
@@ -8133,19 +8133,19 @@
         <v>5292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2324</v>
+        <v>2340</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10022</v>
+        <v>10944</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.007386713557840392</v>
+        <v>0.00738671355784039</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003244640157112949</v>
+        <v>0.003267014381431353</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01398950816305199</v>
+        <v>0.01527716936652424</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -8154,19 +8154,19 @@
         <v>16297</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10684</v>
+        <v>10793</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22494</v>
+        <v>23612</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01804124192917782</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0118267780722957</v>
+        <v>0.01194794379313272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02490096334223887</v>
+        <v>0.02613842175920388</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -8175,19 +8175,19 @@
         <v>21589</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15189</v>
+        <v>14857</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29869</v>
+        <v>30375</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.01332885854169184</v>
+        <v>0.01332885854169185</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00937733720013661</v>
+        <v>0.009172180756576432</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01844075629462606</v>
+        <v>0.01875306420463484</v>
       </c>
     </row>
     <row r="25">
@@ -8204,19 +8204,19 @@
         <v>12104</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7202</v>
+        <v>7524</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19695</v>
+        <v>19688</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01689634272618754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01005339609590065</v>
+        <v>0.01050305722262292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.027492602547431</v>
+        <v>0.02748266596701017</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>89</v>
@@ -8225,19 +8225,19 @@
         <v>49139</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39879</v>
+        <v>38563</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60470</v>
+        <v>60250</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05439678491724472</v>
+        <v>0.05439678491724471</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04414595124051066</v>
+        <v>0.04268878410624807</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0669406911937048</v>
+        <v>0.0666968764292957</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -8246,19 +8246,19 @@
         <v>61243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49329</v>
+        <v>49324</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74558</v>
+        <v>73477</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03781074237781945</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03045511068628313</v>
+        <v>0.03045218494611144</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04603087627686306</v>
+        <v>0.04536367998617864</v>
       </c>
     </row>
     <row r="26">
@@ -8275,19 +8275,19 @@
         <v>3478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1254</v>
+        <v>1310</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7946</v>
+        <v>8257</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004855432651337588</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001749927260717664</v>
+        <v>0.001828960446099082</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01109183634230637</v>
+        <v>0.01152561922607867</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -8296,19 +8296,19 @@
         <v>10692</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6457</v>
+        <v>6678</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17038</v>
+        <v>17257</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01183647121702425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00714781556290018</v>
+        <v>0.007392675727726995</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01886069407738358</v>
+        <v>0.01910341148720314</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -8317,19 +8317,19 @@
         <v>14171</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9161</v>
+        <v>8738</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21450</v>
+        <v>21331</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008748832889189826</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005655755731711795</v>
+        <v>0.005394454490628827</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01324270388333492</v>
+        <v>0.01316947340483684</v>
       </c>
     </row>
     <row r="27">
@@ -8346,19 +8346,19 @@
         <v>695516</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>686526</v>
+        <v>686197</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>701989</v>
+        <v>701777</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9708615110646345</v>
+        <v>0.9708615110646346</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9583112362038451</v>
+        <v>0.9578530840647871</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9798962032269497</v>
+        <v>0.9796002168748479</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1571</v>
@@ -8367,19 +8367,19 @@
         <v>827214</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>812348</v>
+        <v>813347</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>838935</v>
+        <v>838792</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9157255019365532</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8992681629145597</v>
+        <v>0.9003749381935713</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9287009339118339</v>
+        <v>0.9285421240634638</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2567</v>
@@ -8388,19 +8388,19 @@
         <v>1522732</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1507367</v>
+        <v>1507050</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1536402</v>
+        <v>1536712</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.9401115661912988</v>
+        <v>0.9401115661912989</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.930625697449895</v>
+        <v>0.9304302178666016</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9485516511581474</v>
+        <v>0.9487425573154309</v>
       </c>
     </row>
     <row r="28">
